--- a/target/classes/TestData/Automation_CMWeb_TestData.xlsx
+++ b/target/classes/TestData/Automation_CMWeb_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lois.alberto\eclipse-workspace\automation\AutomationTesting\src\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4F2339-BD27-4F5F-98A6-197C67ED907F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977DC694-8066-476A-AB3D-FBB4BAC428DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="2" xr2:uid="{878C2288-D8E6-421D-A69F-09B75C1C7F29}"/>
   </bookViews>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/classes/TestData/Automation_CMWeb_TestData.xlsx
+++ b/target/classes/TestData/Automation_CMWeb_TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lois.alberto\eclipse-workspace\automation\AutomationTesting\src\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lois.alberto\git\Eclipse-Project\AutomationTesting\src\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977DC694-8066-476A-AB3D-FBB4BAC428DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8747848-2526-4395-B8BA-7B40AFC3FD64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="2" xr2:uid="{878C2288-D8E6-421D-A69F-09B75C1C7F29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{878C2288-D8E6-421D-A69F-09B75C1C7F29}"/>
   </bookViews>
   <sheets>
     <sheet name="Merchandise" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
   <si>
     <t>Link</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>1215 egs test</t>
   </si>
   <si>
     <t>AUT_CMWeb_CreateNewMerchandise</t>
@@ -740,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD43B27-8EB1-40AF-BEC6-E39340AB92A7}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,15 +803,15 @@
         <v>15</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -853,10 +850,10 @@
         <v>23</v>
       </c>
       <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
         <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -867,13 +864,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -893,18 +890,17 @@
         <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{229CF668-48C2-40D6-AA9C-29928C3E4D89}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{B3AAA3FF-A8DC-4B83-94A5-5C78D5008448}"/>
-    <hyperlink ref="F4" r:id="rId3" display="http://va-server02/calcmenuweb_template_v91/portal.aspx?act=VIEW_MERCHANDISE&amp;code=75232&amp;codetrans=" xr:uid="{11F1F387-CEDB-4374-A6CF-1C39983C3358}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{849D9095-1E46-4E93-8D5B-BBE6076B0B96}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{849D9095-1E46-4E93-8D5B-BBE6076B0B96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId5"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -963,24 +959,24 @@
         <v>15</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="M1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -995,22 +991,22 @@
         <v>27</v>
       </c>
       <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2">
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M2">
         <v>15</v>
@@ -1021,7 +1017,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -1036,12 +1032,12 @@
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -1072,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57E2F58-2F08-4031-AD5C-F7DC41089A6B}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1115,27 +1111,27 @@
         <v>7</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="I1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1150,18 +1146,18 @@
         <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -1176,21 +1172,21 @@
         <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -1205,13 +1201,13 @@
         <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1226,15 +1222,15 @@
         <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1249,12 +1245,12 @@
         <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -1269,21 +1265,21 @@
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" t="s">
         <v>69</v>
-      </c>
-      <c r="L7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
@@ -1298,15 +1294,15 @@
         <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
@@ -1321,12 +1317,12 @@
         <v>27</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -1341,7 +1337,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/TestData/Automation_CMWeb_TestData.xlsx
+++ b/target/classes/TestData/Automation_CMWeb_TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lois.alberto\git\Eclipse-Project\AutomationTesting\src\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8747848-2526-4395-B8BA-7B40AFC3FD64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DAF9AC-6CA0-4F35-BEC2-1A0838744AFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{878C2288-D8E6-421D-A69F-09B75C1C7F29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="2" xr2:uid="{878C2288-D8E6-421D-A69F-09B75C1C7F29}"/>
   </bookViews>
   <sheets>
     <sheet name="Merchandise" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="73">
   <si>
     <t>Link</t>
   </si>
@@ -236,9 +236,6 @@
     <t>Role Level</t>
   </si>
   <si>
-    <t>Test_Lois</t>
-  </si>
-  <si>
     <t>AUT_CMWeb_EditRole</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
     <t>Site</t>
   </si>
   <si>
-    <t>Lois_Test</t>
-  </si>
-  <si>
     <t>New_Name</t>
   </si>
   <si>
@@ -303,6 +297,9 @@
   </si>
   <si>
     <t>AUT_CMWeb_DeactivateUser</t>
+  </si>
+  <si>
+    <t>Test_Role</t>
   </si>
 </sst>
 </file>
@@ -737,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD43B27-8EB1-40AF-BEC6-E39340AB92A7}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1068,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57E2F58-2F08-4031-AD5C-F7DC41089A6B}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,16 +1114,16 @@
         <v>50</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1146,18 +1143,18 @@
         <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -1172,21 +1169,21 @@
         <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -1201,13 +1198,13 @@
         <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1222,15 +1219,15 @@
         <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1245,12 +1242,12 @@
         <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -1265,21 +1262,21 @@
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
         <v>67</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
@@ -1294,15 +1291,15 @@
         <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
@@ -1317,12 +1314,12 @@
         <v>27</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -1337,7 +1334,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/TestData/Automation_CMWeb_TestData.xlsx
+++ b/target/classes/TestData/Automation_CMWeb_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lois.alberto\git\Eclipse-Project\AutomationTesting\src\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DAF9AC-6CA0-4F35-BEC2-1A0838744AFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE71B5C3-CDF2-4C7D-9775-215B4F60DCAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="2" xr2:uid="{878C2288-D8E6-421D-A69F-09B75C1C7F29}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
   <si>
     <t>Link</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>Test_Role</t>
+  </si>
+  <si>
+    <t>Basic</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1069,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1152,7 @@
         <v>52</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">

--- a/target/classes/TestData/Automation_CMWeb_TestData.xlsx
+++ b/target/classes/TestData/Automation_CMWeb_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lois.alberto\git\Eclipse-Project\AutomationTesting\src\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE71B5C3-CDF2-4C7D-9775-215B4F60DCAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A448F27-AD07-4A0B-ABCA-583B188270F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="2" xr2:uid="{878C2288-D8E6-421D-A69F-09B75C1C7F29}"/>
   </bookViews>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/classes/TestData/Automation_CMWeb_TestData.xlsx
+++ b/target/classes/TestData/Automation_CMWeb_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lois.alberto\git\Eclipse-Project\AutomationTesting\src\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A448F27-AD07-4A0B-ABCA-583B188270F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDAA0C3-19CB-491E-93EF-0B7090217E97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="2" xr2:uid="{878C2288-D8E6-421D-A69F-09B75C1C7F29}"/>
   </bookViews>

--- a/target/classes/TestData/Automation_CMWeb_TestData.xlsx
+++ b/target/classes/TestData/Automation_CMWeb_TestData.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lois.alberto\git\Eclipse-Project\AutomationTesting\src\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lois.alberto\eclipse-workspace\automation\AutomationTesting\src\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDAA0C3-19CB-491E-93EF-0B7090217E97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C378D8F9-F10E-483E-B4DC-2B9210B7AC28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="2" xr2:uid="{878C2288-D8E6-421D-A69F-09B75C1C7F29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" activeTab="3" xr2:uid="{878C2288-D8E6-421D-A69F-09B75C1C7F29}"/>
   </bookViews>
   <sheets>
     <sheet name="Merchandise" sheetId="1" r:id="rId1"/>
     <sheet name="Recipe" sheetId="2" r:id="rId2"/>
     <sheet name="Configuration" sheetId="3" r:id="rId3"/>
+    <sheet name="Keyword" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,8 +81,26 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C4C07980-AF2E-482D-84E0-D3A41A2B85E6}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{C4C07980-AF2E-482D-84E0-D3A41A2B85E6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    As of now global and HQ sharing only</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="91">
   <si>
     <t>Link</t>
   </si>
@@ -167,6 +186,9 @@
     <t>admin</t>
   </si>
   <si>
+    <t>1215 egs test</t>
+  </si>
+  <si>
     <t>AUT_CMWeb_CreateNewMerchandise</t>
   </si>
   <si>
@@ -236,6 +258,9 @@
     <t>Role Level</t>
   </si>
   <si>
+    <t>Test_Lois</t>
+  </si>
+  <si>
     <t>AUT_CMWeb_EditRole</t>
   </si>
   <si>
@@ -245,6 +270,9 @@
     <t>Site</t>
   </si>
   <si>
+    <t>Lois_Test</t>
+  </si>
+  <si>
     <t>New_Name</t>
   </si>
   <si>
@@ -299,10 +327,52 @@
     <t>AUT_CMWeb_DeactivateUser</t>
   </si>
   <si>
-    <t>Test_Role</t>
-  </si>
-  <si>
-    <t>Basic</t>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Test_English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French </t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Test_German</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Test_Italian</t>
+  </si>
+  <si>
+    <t>AUT_CMWeb_Merchandise_NewKeyword</t>
+  </si>
+  <si>
+    <t>EGS test keyword</t>
+  </si>
+  <si>
+    <t>Sharing</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>AUT_CMWeb_Merchandise_ModifyKeyword</t>
+  </si>
+  <si>
+    <t>EGS test 1</t>
+  </si>
+  <si>
+    <t>AUT_CMWeb_Merchandise_SearchKeyword</t>
+  </si>
+  <si>
+    <t>AUT_CMWeb_Merchandise_DeleteKeyword</t>
   </si>
 </sst>
 </file>
@@ -733,12 +803,20 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2021-01-06T01:07:58.83" personId="{40215DE6-78E5-484C-B35F-109462FB8E0B}" id="{C4C07980-AF2E-482D-84E0-D3A41A2B85E6}">
+    <text>As of now global and HQ sharing only</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD43B27-8EB1-40AF-BEC6-E39340AB92A7}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,15 +881,15 @@
         <v>15</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -850,10 +928,10 @@
         <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -864,13 +942,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -890,17 +968,18 @@
         <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{229CF668-48C2-40D6-AA9C-29928C3E4D89}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{B3AAA3FF-A8DC-4B83-94A5-5C78D5008448}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{849D9095-1E46-4E93-8D5B-BBE6076B0B96}"/>
+    <hyperlink ref="F4" r:id="rId3" display="http://va-server02/calcmenuweb_template_v91/portal.aspx?act=VIEW_MERCHANDISE&amp;code=75232&amp;codetrans=" xr:uid="{11F1F387-CEDB-4374-A6CF-1C39983C3358}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{849D9095-1E46-4E93-8D5B-BBE6076B0B96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -959,24 +1038,24 @@
         <v>15</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -991,22 +1070,22 @@
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2">
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M2">
         <v>15</v>
@@ -1017,7 +1096,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -1032,12 +1111,12 @@
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -1068,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57E2F58-2F08-4031-AD5C-F7DC41089A6B}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,27 +1190,27 @@
         <v>7</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1146,18 +1225,18 @@
         <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -1172,21 +1251,21 @@
         <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -1201,13 +1280,13 @@
         <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1222,15 +1301,15 @@
         <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1245,12 +1324,12 @@
         <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -1265,44 +1344,44 @@
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
@@ -1317,12 +1396,12 @@
         <v>27</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -1337,7 +1416,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1355,4 +1434,177 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2ADF11-9931-4D3A-8AF8-2813056D4A3C}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5904B880-A954-43D9-885B-A7CC16F1A50D}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{CB5B2E7A-3BA8-4E83-A3EB-6ADEBD4022CE}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{D0AB2040-CCF1-40CE-B12F-28A740EC80F0}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{094326E3-74B5-4F5D-9616-E6F74F1D8682}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId5"/>
+</worksheet>
 </file>